--- a/output.xlsx
+++ b/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6199528710463427849" xfId="1" hidden="0"/>
-    <cellStyle name="-6091285079740083752" xfId="2" hidden="0"/>
+    <cellStyle name="-4799423663076859724" xfId="1" hidden="0"/>
+    <cellStyle name="-3171142477626821488" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
